--- a/out/results.xlsx
+++ b/out/results.xlsx
@@ -1,34 +1,133 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="132" yWindow="624" windowWidth="22716" windowHeight="8148"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="32">
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Clauses</t>
+  </si>
+  <si>
+    <t>3-3-3</t>
+  </si>
+  <si>
+    <t>binominal</t>
+  </si>
+  <si>
+    <t>0.00s</t>
+  </si>
+  <si>
+    <t>sat</t>
+  </si>
+  <si>
+    <t>5-4-4</t>
+  </si>
+  <si>
+    <t>0.11s</t>
+  </si>
+  <si>
+    <t>4-4-4</t>
+  </si>
+  <si>
+    <t>0.05s</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>0.09s</t>
+  </si>
+  <si>
+    <t>0.03s</t>
+  </si>
+  <si>
+    <t>commander</t>
+  </si>
+  <si>
+    <t>0.31s</t>
+  </si>
+  <si>
+    <t>sequential</t>
+  </si>
+  <si>
+    <t>0.42s</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>0.14s</t>
+  </si>
+  <si>
+    <t>0.06s</t>
+  </si>
+  <si>
+    <t>3-2-2</t>
+  </si>
+  <si>
+    <t>4-3-3</t>
+  </si>
+  <si>
+    <t>0.12s</t>
+  </si>
+  <si>
+    <t>0.02s</t>
+  </si>
+  <si>
+    <t>0.34s</t>
+  </si>
+  <si>
+    <t>0.36s</t>
+  </si>
+  <si>
+    <t>0.30s</t>
+  </si>
+  <si>
+    <t>0.17s</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +146,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,90 +445,837 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Problem</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Result</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Variables</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Clauses</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>5-4-4</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0.11s</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>324</v>
+      </c>
+      <c r="F2">
+        <v>4167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
         <v>1600</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F3">
         <v>35192</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>5-4-4</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0.12s</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>1280</v>
+      </c>
+      <c r="F4">
+        <v>23349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>324</v>
+      </c>
+      <c r="F5">
+        <v>4167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
         <v>1600</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F6">
         <v>35192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>1280</v>
+      </c>
+      <c r="F7">
+        <v>23349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>90302</v>
+      </c>
+      <c r="F8">
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>160503</v>
+      </c>
+      <c r="F9">
+        <v>36483</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>160403</v>
+      </c>
+      <c r="F10">
+        <v>24872</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>90302</v>
+      </c>
+      <c r="F11">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>160503</v>
+      </c>
+      <c r="F12">
+        <v>29551</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>160403</v>
+      </c>
+      <c r="F13">
+        <v>20548</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>324</v>
+      </c>
+      <c r="F14">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>1600</v>
+      </c>
+      <c r="F15">
+        <v>30096</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>1280</v>
+      </c>
+      <c r="F16">
+        <v>20816</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>72</v>
+      </c>
+      <c r="F17">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>432</v>
+      </c>
+      <c r="F18">
+        <v>6219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>324</v>
+      </c>
+      <c r="F19">
+        <v>4167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>1600</v>
+      </c>
+      <c r="F20">
+        <v>35192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>1280</v>
+      </c>
+      <c r="F21">
+        <v>23349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>72</v>
+      </c>
+      <c r="F22">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>432</v>
+      </c>
+      <c r="F23">
+        <v>6219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24">
+        <v>324</v>
+      </c>
+      <c r="F24">
+        <v>4167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>1600</v>
+      </c>
+      <c r="F25">
+        <v>35192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>1280</v>
+      </c>
+      <c r="F26">
+        <v>23349</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27">
+        <v>40301</v>
+      </c>
+      <c r="F27">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28">
+        <v>90402</v>
+      </c>
+      <c r="F28">
+        <v>4589</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29">
+        <v>90302</v>
+      </c>
+      <c r="F29">
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <v>160503</v>
+      </c>
+      <c r="F30">
+        <v>36483</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31">
+        <v>160403</v>
+      </c>
+      <c r="F31">
+        <v>24872</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32">
+        <v>40301</v>
+      </c>
+      <c r="F32">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33">
+        <v>90402</v>
+      </c>
+      <c r="F33">
+        <v>4187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>90302</v>
+      </c>
+      <c r="F34">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35">
+        <v>160503</v>
+      </c>
+      <c r="F35">
+        <v>29551</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36">
+        <v>160403</v>
+      </c>
+      <c r="F36">
+        <v>20548</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <v>72</v>
+      </c>
+      <c r="F37">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38">
+        <v>432</v>
+      </c>
+      <c r="F38">
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39">
+        <v>324</v>
+      </c>
+      <c r="F39">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40">
+        <v>1600</v>
+      </c>
+      <c r="F40">
+        <v>30096</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41">
+        <v>1280</v>
+      </c>
+      <c r="F41">
+        <v>20816</v>
       </c>
     </row>
   </sheetData>

--- a/out/results.xlsx
+++ b/out/results.xlsx
@@ -22,7 +22,7 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Time</t>
+    <t>Time(s)</t>
   </si>
   <si>
     <t>Result</t>
@@ -371,7 +371,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="F10" sqref="A2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/out/results.xlsx
+++ b/out/results.xlsx
@@ -1,55 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="624" windowWidth="22716" windowHeight="8148"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="132" yWindow="624" windowWidth="22716" windowHeight="8148" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Results" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Problem</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Time(s)</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Variables</t>
-  </si>
-  <si>
-    <t>Clauses</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -68,18 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -367,37 +407,865 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F10" sqref="A2:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="10.109375" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Problem</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Time(s)</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Variables</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Clauses</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>7-4-2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>560</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7412</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>7-4-2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>560</v>
+      </c>
+      <c r="F3" t="n">
+        <v>14824</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>7-4-2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>560</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7412</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>15-8-2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.011</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4320</v>
+      </c>
+      <c r="F5" t="n">
+        <v>131624</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5-3-6</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.047</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2160</v>
+      </c>
+      <c r="F6" t="n">
+        <v>98109</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>7-4-2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F7" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15-8-2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5-3-6</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>7-4-2</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>560</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7412</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>15-8-2</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.024</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>4320</v>
+      </c>
+      <c r="F11" t="n">
+        <v>131624</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>5-3-6</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0.062</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2160</v>
+      </c>
+      <c r="F12" t="n">
+        <v>98109</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>7-4-2</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>560</v>
+      </c>
+      <c r="F13" t="n">
+        <v>7412</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>7-4-2</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>560</v>
+      </c>
+      <c r="F14" t="n">
+        <v>7412</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>7-4-2</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>560</v>
+      </c>
+      <c r="F15" t="n">
+        <v>7412</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>7-4-2</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>560</v>
+      </c>
+      <c r="F16" t="n">
+        <v>7412</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>15-8-2</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.032</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>4320</v>
+      </c>
+      <c r="F17" t="n">
+        <v>131624</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>5-3-6</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0.047</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>2160</v>
+      </c>
+      <c r="F18" t="n">
+        <v>98109</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>7-4-2</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>560</v>
+      </c>
+      <c r="F19" t="n">
+        <v>7412</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>15-8-2</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0.014</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>4320</v>
+      </c>
+      <c r="F20" t="n">
+        <v>131624</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>5-3-6</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0.047</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>2160</v>
+      </c>
+      <c r="F21" t="n">
+        <v>98109</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>7-4-2</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>560</v>
+      </c>
+      <c r="F22" t="n">
+        <v>7412</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>15-8-2</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0.012</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>4320</v>
+      </c>
+      <c r="F23" t="n">
+        <v>131624</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>5-3-6</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0.031</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2160</v>
+      </c>
+      <c r="F24" t="n">
+        <v>98109</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>7-4-2</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>560</v>
+      </c>
+      <c r="F25" t="n">
+        <v>7412</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>15-8-2</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0.017</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>4320</v>
+      </c>
+      <c r="F26" t="n">
+        <v>131624</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>5-3-6</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0.047</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>2160</v>
+      </c>
+      <c r="F27" t="n">
+        <v>98109</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>7-4-2</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>560</v>
+      </c>
+      <c r="F28" t="n">
+        <v>7412</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>15-8-2</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0.012</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>4320</v>
+      </c>
+      <c r="F29" t="n">
+        <v>131624</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>5-3-6</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0.062</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>2160</v>
+      </c>
+      <c r="F30" t="n">
+        <v>98109</v>
       </c>
     </row>
   </sheetData>

--- a/out/results.xlsx
+++ b/out/results.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F10" sqref="A2:F10"/>
@@ -1268,6 +1268,1266 @@
         <v>98109</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>5-4-4</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0.125</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1600</v>
+      </c>
+      <c r="F31" t="n">
+        <v>35192</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4-3-3</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>432</v>
+      </c>
+      <c r="F32" t="n">
+        <v>6219</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>7-2-4</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>672</v>
+      </c>
+      <c r="F33" t="n">
+        <v>14916</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>9-2-5</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0.016</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>1350</v>
+      </c>
+      <c r="F34" t="n">
+        <v>54215</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>5-4-5</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0.609</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F35" t="n">
+        <v>74054</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1-3-5</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>300</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4875</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2-3-5</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>600</v>
+      </c>
+      <c r="F37" t="n">
+        <v>12495</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3-3-5</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>900</v>
+      </c>
+      <c r="F38" t="n">
+        <v>22740</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4-3-5</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0.016</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F39" t="n">
+        <v>35610</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>5-3-5</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0.047</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F40" t="n">
+        <v>51105</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>6-3-5</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0.219</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F41" t="n">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>6-4-8</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>7.031</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>7680</v>
+      </c>
+      <c r="F42" t="n">
+        <v>593261</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>7-4-2</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>560</v>
+      </c>
+      <c r="F43" t="n">
+        <v>7412</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>15-8-2</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0.013</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>4320</v>
+      </c>
+      <c r="F44" t="n">
+        <v>131624</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>5-3-6</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0.062</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>2160</v>
+      </c>
+      <c r="F45" t="n">
+        <v>98109</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>5-4-4</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0.125</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>1600</v>
+      </c>
+      <c r="F46" t="n">
+        <v>35192</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>4-3-3</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>432</v>
+      </c>
+      <c r="F47" t="n">
+        <v>6219</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>7-2-4</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>672</v>
+      </c>
+      <c r="F48" t="n">
+        <v>14916</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>9-2-5</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0.016</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>1350</v>
+      </c>
+      <c r="F49" t="n">
+        <v>54215</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>5-4-5</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0.594</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F50" t="n">
+        <v>74054</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1-3-5</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>300</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4875</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2-3-5</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>600</v>
+      </c>
+      <c r="F52" t="n">
+        <v>12495</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>3-3-5</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>900</v>
+      </c>
+      <c r="F53" t="n">
+        <v>22740</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>4-3-5</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0.016</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F54" t="n">
+        <v>35610</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>5-3-5</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0.031</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F55" t="n">
+        <v>51105</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>6-3-5</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0.219</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F56" t="n">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>6-4-8</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>6.672</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>7680</v>
+      </c>
+      <c r="F57" t="n">
+        <v>593261</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>7-4-2</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>560</v>
+      </c>
+      <c r="F58" t="n">
+        <v>7412</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>15-8-2</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0.013</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>4320</v>
+      </c>
+      <c r="F59" t="n">
+        <v>131624</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>5-3-6</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0.047</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>2160</v>
+      </c>
+      <c r="F60" t="n">
+        <v>98109</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>5-4-4</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0.109</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>1600</v>
+      </c>
+      <c r="F61" t="n">
+        <v>35192</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>4-3-3</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>432</v>
+      </c>
+      <c r="F62" t="n">
+        <v>6219</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>7-2-4</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>672</v>
+      </c>
+      <c r="F63" t="n">
+        <v>14916</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>9-2-5</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>1350</v>
+      </c>
+      <c r="F64" t="n">
+        <v>54215</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>5-4-5</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0.562</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F65" t="n">
+        <v>74054</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>1-3-5</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>300</v>
+      </c>
+      <c r="F66" t="n">
+        <v>4875</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2-3-5</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>600</v>
+      </c>
+      <c r="F67" t="n">
+        <v>12495</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>3-3-5</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>900</v>
+      </c>
+      <c r="F68" t="n">
+        <v>22740</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>4-3-5</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0.016</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F69" t="n">
+        <v>35610</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>5-3-5</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0.031</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F70" t="n">
+        <v>51105</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>6-3-5</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0.219</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F71" t="n">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>6-4-8</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>6.531</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>7680</v>
+      </c>
+      <c r="F72" t="n">
+        <v>593261</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>7-4-2</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>560</v>
+      </c>
+      <c r="F73" t="n">
+        <v>7412</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>15-8-2</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0.013</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>4320</v>
+      </c>
+      <c r="F74" t="n">
+        <v>131624</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>5-3-6</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0.047</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>2160</v>
+      </c>
+      <c r="F75" t="n">
+        <v>98109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/out/results.xlsx
+++ b/out/results.xlsx
@@ -412,10 +412,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="A2:F10"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -459,7 +459,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>7-4-2</t>
+          <t>5-4-4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -469,25 +469,25 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.109</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>560</v>
+        <v>1600</v>
       </c>
       <c r="F2" t="n">
-        <v>7412</v>
+        <v>35192</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7-4-2</t>
+          <t>4-3-3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -497,25 +497,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>560</v>
+        <v>432</v>
       </c>
       <c r="F3" t="n">
-        <v>14824</v>
+        <v>6219</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7-4-2</t>
+          <t>7-2-4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -525,25 +525,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>560</v>
+        <v>672</v>
       </c>
       <c r="F4" t="n">
-        <v>7412</v>
+        <v>14916</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>15-8-2</t>
+          <t>9-2-5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -553,25 +553,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.011</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4320</v>
+        <v>1350</v>
       </c>
       <c r="F5" t="n">
-        <v>131624</v>
+        <v>54215</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5-3-6</t>
+          <t>5-4-5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.047</t>
+          <t>0.641</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -590,16 +590,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2160</v>
+        <v>2500</v>
       </c>
       <c r="F6" t="n">
-        <v>98109</v>
+        <v>74054</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7-4-2</t>
+          <t>1-3-5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -618,16 +618,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-1</v>
+        <v>300</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>15-8-2</t>
+          <t>2-3-5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -646,16 +646,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-1</v>
+        <v>600</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>12495</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5-3-6</t>
+          <t>3-3-5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -674,16 +674,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-1</v>
+        <v>900</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>22740</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7-4-2</t>
+          <t>4-3-5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -693,25 +693,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>560</v>
+        <v>1200</v>
       </c>
       <c r="F10" t="n">
-        <v>7412</v>
+        <v>35610</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>15-8-2</t>
+          <t>5-3-5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -721,25 +721,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.024</t>
+          <t>0.031</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4320</v>
+        <v>1500</v>
       </c>
       <c r="F11" t="n">
-        <v>131624</v>
+        <v>51105</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5-3-6</t>
+          <t>6-3-5</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.062</t>
+          <t>0.250</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -758,16 +758,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2160</v>
+        <v>1800</v>
       </c>
       <c r="F12" t="n">
-        <v>98109</v>
+        <v>42248</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7-4-2</t>
+          <t>6-4-8</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -777,19 +777,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>6.234</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>560</v>
+        <v>7680</v>
       </c>
       <c r="F13" t="n">
-        <v>7412</v>
+        <v>593261</v>
       </c>
     </row>
     <row r="14">
@@ -823,7 +823,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>7-4-2</t>
+          <t>15-8-2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.016</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -842,16 +842,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>560</v>
+        <v>4320</v>
       </c>
       <c r="F15" t="n">
-        <v>7412</v>
+        <v>131624</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>7-4-2</t>
+          <t>5-3-6</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -861,63 +861,63 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.003</t>
+          <t>0.062</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>560</v>
+        <v>2160</v>
       </c>
       <c r="F16" t="n">
-        <v>7412</v>
+        <v>98109</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>15-8-2</t>
+          <t>5-4-4</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.032</t>
+          <t>0.109</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4320</v>
+        <v>1600</v>
       </c>
       <c r="F17" t="n">
-        <v>131624</v>
+        <v>35192</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5-3-6</t>
+          <t>4-3-3</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.047</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -926,82 +926,82 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2160</v>
+        <v>432</v>
       </c>
       <c r="F18" t="n">
-        <v>98109</v>
+        <v>6219</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>7-4-2</t>
+          <t>7-2-4</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>560</v>
+        <v>672</v>
       </c>
       <c r="F19" t="n">
-        <v>7412</v>
+        <v>14916</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>15-8-2</t>
+          <t>9-2-5</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.014</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4320</v>
+        <v>1350</v>
       </c>
       <c r="F20" t="n">
-        <v>131624</v>
+        <v>54215</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5-3-6</t>
+          <t>5-4-5</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.047</t>
+          <t>0.594</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1010,82 +1010,82 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2160</v>
+        <v>2500</v>
       </c>
       <c r="F21" t="n">
-        <v>98109</v>
+        <v>74054</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>7-4-2</t>
+          <t>1-3-5</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>560</v>
+        <v>300</v>
       </c>
       <c r="F22" t="n">
-        <v>7412</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>15-8-2</t>
+          <t>2-3-5</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.012</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4320</v>
+        <v>600</v>
       </c>
       <c r="F23" t="n">
-        <v>131624</v>
+        <v>12495</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5-3-6</t>
+          <t>3-3-5</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.031</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1094,82 +1094,82 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="F24" t="n">
-        <v>98109</v>
+        <v>22740</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>7-4-2</t>
+          <t>4-3-5</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>560</v>
+        <v>1200</v>
       </c>
       <c r="F25" t="n">
-        <v>7412</v>
+        <v>35610</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>15-8-2</t>
+          <t>5-3-5</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.017</t>
+          <t>0.031</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4320</v>
+        <v>1500</v>
       </c>
       <c r="F26" t="n">
-        <v>131624</v>
+        <v>51105</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5-3-6</t>
+          <t>6-3-5</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.047</t>
+          <t>0.219</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1178,54 +1178,54 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2160</v>
+        <v>1800</v>
       </c>
       <c r="F27" t="n">
-        <v>98109</v>
+        <v>42248</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>7-4-2</t>
+          <t>6-4-8</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>6.297</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>560</v>
+        <v>7680</v>
       </c>
       <c r="F28" t="n">
-        <v>7412</v>
+        <v>593261</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>15-8-2</t>
+          <t>7-4-2</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.012</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1234,54 +1234,54 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4320</v>
+        <v>560</v>
       </c>
       <c r="F29" t="n">
-        <v>131624</v>
+        <v>7412</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5-3-6</t>
+          <t>15-8-2</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.062</t>
+          <t>0.020</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2160</v>
+        <v>4320</v>
       </c>
       <c r="F30" t="n">
-        <v>98109</v>
+        <v>131624</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5-4-4</t>
+          <t>5-3-6</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.125</t>
+          <t>0.062</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1290,26 +1290,26 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1600</v>
+        <v>2160</v>
       </c>
       <c r="F31" t="n">
-        <v>35192</v>
+        <v>98109</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4-3-3</t>
+          <t>5-4-4</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>commander</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.172</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1318,26 +1318,26 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>432</v>
+        <v>1653</v>
       </c>
       <c r="F32" t="n">
-        <v>6219</v>
+        <v>38602</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>7-2-4</t>
+          <t>4-3-3</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>commander</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.016</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1346,26 +1346,26 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>672</v>
+        <v>942</v>
       </c>
       <c r="F33" t="n">
-        <v>14916</v>
+        <v>6231</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>9-2-5</t>
+          <t>7-2-4</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>commander</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.016</t>
+          <t>0.047</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1374,77 +1374,77 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1350</v>
+        <v>873</v>
       </c>
       <c r="F34" t="n">
-        <v>54215</v>
+        <v>6473</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5-4-5</t>
+          <t>9-2-5</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>commander</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.609</t>
+          <t>10.004</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2500</v>
+        <v>1350</v>
       </c>
       <c r="F35" t="n">
-        <v>74054</v>
+        <v>29733</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1-3-5</t>
+          <t>5-4-5</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>commander</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>10.010</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>300</v>
+        <v>2500</v>
       </c>
       <c r="F36" t="n">
-        <v>4875</v>
+        <v>74216</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2-3-5</t>
+          <t>1-3-5</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>commander</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1458,21 +1458,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>600</v>
+        <v>1514</v>
       </c>
       <c r="F37" t="n">
-        <v>12495</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3-3-5</t>
+          <t>2-3-5</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>commander</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1486,21 +1486,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>900</v>
+        <v>1524</v>
       </c>
       <c r="F38" t="n">
-        <v>22740</v>
+        <v>12535</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>4-3-5</t>
+          <t>3-3-5</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>commander</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1514,26 +1514,26 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1200</v>
+        <v>1534</v>
       </c>
       <c r="F39" t="n">
-        <v>35610</v>
+        <v>22780</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5-3-5</t>
+          <t>4-3-5</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>commander</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.047</t>
+          <t>0.062</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1542,26 +1542,26 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1500</v>
+        <v>1544</v>
       </c>
       <c r="F40" t="n">
-        <v>51105</v>
+        <v>31041</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6-3-5</t>
+          <t>5-3-5</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>commander</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.219</t>
+          <t>0.078</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1570,26 +1570,26 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1800</v>
+        <v>1554</v>
       </c>
       <c r="F41" t="n">
-        <v>42248</v>
+        <v>44369</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6-4-8</t>
+          <t>6-3-5</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>commander</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>7.031</t>
+          <t>2.969</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1598,26 +1598,26 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>7680</v>
+        <v>1800</v>
       </c>
       <c r="F42" t="n">
-        <v>593261</v>
+        <v>56047</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>7-4-2</t>
+          <t>6-4-8</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>commander</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>10.005</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1626,26 +1626,26 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>560</v>
+        <v>7680</v>
       </c>
       <c r="F43" t="n">
-        <v>7412</v>
+        <v>675003</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>15-8-2</t>
+          <t>7-4-2</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>commander</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.013</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1654,54 +1654,54 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4320</v>
+        <v>871</v>
       </c>
       <c r="F44" t="n">
-        <v>131624</v>
+        <v>7416</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5-3-6</t>
+          <t>15-8-2</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>commander</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.062</t>
+          <t>0.016</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2160</v>
+        <v>4320</v>
       </c>
       <c r="F45" t="n">
-        <v>98109</v>
+        <v>131628</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5-4-4</t>
+          <t>5-3-6</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>commander</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.125</t>
+          <t>0.172</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1710,26 +1710,26 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1600</v>
+        <v>2160</v>
       </c>
       <c r="F46" t="n">
-        <v>35192</v>
+        <v>87876</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>4-3-3</t>
+          <t>5-4-4</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>sequential</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>1.656</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1738,26 +1738,26 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>432</v>
+        <v>1653</v>
       </c>
       <c r="F47" t="n">
-        <v>6219</v>
+        <v>23773</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>7-2-4</t>
+          <t>4-3-3</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>sequential</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.016</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1766,105 +1766,105 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>672</v>
+        <v>942</v>
       </c>
       <c r="F48" t="n">
-        <v>14916</v>
+        <v>4569</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>9-2-5</t>
+          <t>7-2-4</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>sequential</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.016</t>
+          <t>0.010</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1350</v>
+        <v>873</v>
       </c>
       <c r="F49" t="n">
-        <v>54215</v>
+        <v>13772</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5-4-5</t>
+          <t>9-2-5</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>sequential</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.594</t>
+          <t>0.007</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2500</v>
+        <v>1350</v>
       </c>
       <c r="F50" t="n">
-        <v>74054</v>
+        <v>50255</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1-3-5</t>
+          <t>5-4-5</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>sequential</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>10.015</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>300</v>
+        <v>2500</v>
       </c>
       <c r="F51" t="n">
-        <v>4875</v>
+        <v>65878</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2-3-5</t>
+          <t>1-3-5</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>sequential</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1878,26 +1878,26 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>600</v>
+        <v>1514</v>
       </c>
       <c r="F52" t="n">
-        <v>12495</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3-3-5</t>
+          <t>2-3-5</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>sequential</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.016</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1906,21 +1906,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>900</v>
+        <v>1524</v>
       </c>
       <c r="F53" t="n">
-        <v>22740</v>
+        <v>7832</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>4-3-5</t>
+          <t>3-3-5</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>sequential</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1934,26 +1934,26 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1200</v>
+        <v>1534</v>
       </c>
       <c r="F54" t="n">
-        <v>35610</v>
+        <v>15145</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>5-3-5</t>
+          <t>4-3-5</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>sequential</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.031</t>
+          <t>0.078</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1962,26 +1962,26 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1500</v>
+        <v>1544</v>
       </c>
       <c r="F55" t="n">
-        <v>51105</v>
+        <v>24667</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6-3-5</t>
+          <t>5-3-5</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>sequential</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.219</t>
+          <t>0.547</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1990,54 +1990,54 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1800</v>
+        <v>1554</v>
       </c>
       <c r="F56" t="n">
-        <v>42248</v>
+        <v>33440</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>6-4-8</t>
+          <t>6-3-5</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>sequential</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>6.672</t>
+          <t>10.023</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>7680</v>
+        <v>1800</v>
       </c>
       <c r="F57" t="n">
-        <v>593261</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>7-4-2</t>
+          <t>6-4-8</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>sequential</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>10.011</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2046,26 +2046,26 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>560</v>
+        <v>7680</v>
       </c>
       <c r="F58" t="n">
-        <v>7412</v>
+        <v>570349</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>15-8-2</t>
+          <t>7-4-2</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>sequential</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.013</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2074,54 +2074,54 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4320</v>
+        <v>871</v>
       </c>
       <c r="F59" t="n">
-        <v>131624</v>
+        <v>6964</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>5-3-6</t>
+          <t>15-8-2</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>sequential</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0.047</t>
+          <t>0.009</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>2160</v>
+        <v>4320</v>
       </c>
       <c r="F60" t="n">
-        <v>98109</v>
+        <v>112242</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>5-4-4</t>
+          <t>5-3-6</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>sequential</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.109</t>
+          <t>0.328</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2130,26 +2130,26 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1600</v>
+        <v>2160</v>
       </c>
       <c r="F61" t="n">
-        <v>35192</v>
+        <v>70257</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>4-3-3</t>
+          <t>5-4-4</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>product</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2158,21 +2158,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>432</v>
+        <v>1600</v>
       </c>
       <c r="F62" t="n">
-        <v>6219</v>
+        <v>30096</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>7-2-4</t>
+          <t>4-3-3</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>product</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2186,21 +2186,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>672</v>
+        <v>432</v>
       </c>
       <c r="F63" t="n">
-        <v>14916</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>9-2-5</t>
+          <t>7-2-4</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>product</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2214,26 +2214,26 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1350</v>
+        <v>672</v>
       </c>
       <c r="F64" t="n">
-        <v>54215</v>
+        <v>13124</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>5-4-5</t>
+          <t>9-2-5</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>product</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0.562</t>
+          <t>3.781</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2242,26 +2242,26 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2500</v>
+        <v>1350</v>
       </c>
       <c r="F65" t="n">
-        <v>74054</v>
+        <v>16509</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1-3-5</t>
+          <t>5-4-5</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>product</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>2.156</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2270,21 +2270,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>300</v>
+        <v>2500</v>
       </c>
       <c r="F66" t="n">
-        <v>4875</v>
+        <v>61595</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2-3-5</t>
+          <t>1-3-5</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>product</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2298,21 +2298,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F67" t="n">
-        <v>12495</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>3-3-5</t>
+          <t>2-3-5</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>product</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2326,26 +2326,26 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="F68" t="n">
-        <v>22740</v>
+        <v>9255</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>4-3-5</t>
+          <t>3-3-5</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>product</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0.016</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2354,21 +2354,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="F69" t="n">
-        <v>35610</v>
+        <v>17880</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>5-3-5</t>
+          <t>4-3-5</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>product</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2382,26 +2382,26 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="F70" t="n">
-        <v>51105</v>
+        <v>20070</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6-3-5</t>
+          <t>5-3-5</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>product</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0.219</t>
+          <t>0.062</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2410,82 +2410,82 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="F71" t="n">
-        <v>42248</v>
+        <v>32079</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6-4-8</t>
+          <t>6-3-5</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>product</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>6.531</t>
+          <t>10.044</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>7680</v>
+        <v>1800</v>
       </c>
       <c r="F72" t="n">
-        <v>593261</v>
+        <v>39969</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>7-4-2</t>
+          <t>6-4-8</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>product</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>8.562</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>560</v>
+        <v>7680</v>
       </c>
       <c r="F73" t="n">
-        <v>7412</v>
+        <v>491380</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>15-8-2</t>
+          <t>7-4-2</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>product</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0.013</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2494,38 +2494,66 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>4320</v>
+        <v>560</v>
       </c>
       <c r="F74" t="n">
-        <v>131624</v>
+        <v>5620</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
+          <t>15-8-2</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0.012</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>4320</v>
+      </c>
+      <c r="F75" t="n">
+        <v>100904</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
           <t>5-3-6</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>binomial</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>0.047</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0.125</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
         <v>2160</v>
       </c>
-      <c r="F75" t="n">
-        <v>98109</v>
+      <c r="F76" t="n">
+        <v>60351</v>
       </c>
     </row>
   </sheetData>

--- a/out/results.xlsx
+++ b/out/results.xlsx
@@ -415,7 +415,7 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -497,7 +497,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.016</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.031</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.641</t>
+          <t>0.531</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.016</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.250</t>
+          <t>0.172</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -777,7 +777,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>6.234</t>
+          <t>5.797</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -805,7 +805,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.016</t>
+          <t>0.017</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.062</t>
+          <t>0.078</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.109</t>
+          <t>0.141</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -901,7 +901,7 @@
         <v>1600</v>
       </c>
       <c r="F17" t="n">
-        <v>35192</v>
+        <v>26388</v>
       </c>
     </row>
     <row r="18">
@@ -917,7 +917,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.016</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -929,7 +929,7 @@
         <v>432</v>
       </c>
       <c r="F18" t="n">
-        <v>6219</v>
+        <v>3705</v>
       </c>
     </row>
     <row r="19">
@@ -945,7 +945,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.047</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -957,7 +957,7 @@
         <v>672</v>
       </c>
       <c r="F19" t="n">
-        <v>14916</v>
+        <v>6753</v>
       </c>
     </row>
     <row r="20">
@@ -973,19 +973,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>10.013</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>1350</v>
       </c>
       <c r="F20" t="n">
-        <v>54215</v>
+        <v>28019</v>
       </c>
     </row>
     <row r="21">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.594</t>
+          <t>4.609</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1013,7 +1013,7 @@
         <v>2500</v>
       </c>
       <c r="F21" t="n">
-        <v>74054</v>
+        <v>59629</v>
       </c>
     </row>
     <row r="22">
@@ -1041,7 +1041,7 @@
         <v>300</v>
       </c>
       <c r="F22" t="n">
-        <v>4875</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="23">
@@ -1069,7 +1069,7 @@
         <v>600</v>
       </c>
       <c r="F23" t="n">
-        <v>12495</v>
+        <v>6243</v>
       </c>
     </row>
     <row r="24">
@@ -1097,7 +1097,7 @@
         <v>900</v>
       </c>
       <c r="F24" t="n">
-        <v>22740</v>
+        <v>14640</v>
       </c>
     </row>
     <row r="25">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.016</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1125,7 +1125,7 @@
         <v>1200</v>
       </c>
       <c r="F25" t="n">
-        <v>35610</v>
+        <v>23065</v>
       </c>
     </row>
     <row r="26">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.031</t>
+          <t>0.047</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1153,7 +1153,7 @@
         <v>1500</v>
       </c>
       <c r="F26" t="n">
-        <v>51105</v>
+        <v>32620</v>
       </c>
     </row>
     <row r="27">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.219</t>
+          <t>3.922</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1181,7 +1181,7 @@
         <v>1800</v>
       </c>
       <c r="F27" t="n">
-        <v>42248</v>
+        <v>47191</v>
       </c>
     </row>
     <row r="28">
@@ -1197,19 +1197,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>6.297</t>
+          <t>10.013</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E28" t="n">
         <v>7680</v>
       </c>
       <c r="F28" t="n">
-        <v>593261</v>
+        <v>547924</v>
       </c>
     </row>
     <row r="29">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1237,7 +1237,7 @@
         <v>560</v>
       </c>
       <c r="F29" t="n">
-        <v>7412</v>
+        <v>5620</v>
       </c>
     </row>
     <row r="30">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.020</t>
+          <t>0.023</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1265,7 +1265,7 @@
         <v>4320</v>
       </c>
       <c r="F30" t="n">
-        <v>131624</v>
+        <v>100904</v>
       </c>
     </row>
     <row r="31">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.062</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1293,7 +1293,7 @@
         <v>2160</v>
       </c>
       <c r="F31" t="n">
-        <v>98109</v>
+        <v>67188</v>
       </c>
     </row>
     <row r="32">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.172</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.016</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.047</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>10.004</t>
+          <t>10.063</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>10.010</t>
+          <t>10.013</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1433,7 +1433,7 @@
         <v>2500</v>
       </c>
       <c r="F36" t="n">
-        <v>74216</v>
+        <v>74089</v>
       </c>
     </row>
     <row r="37">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.016</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.062</t>
+          <t>0.047</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.078</t>
+          <t>0.062</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2.969</t>
+          <t>2.844</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>10.005</t>
+          <t>10.014</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.016</t>
+          <t>0.022</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.172</t>
+          <t>0.156</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.656</t>
+          <t>1.547</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.016</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.010</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.007</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>10.015</t>
+          <t>10.013</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1853,7 +1853,7 @@
         <v>2500</v>
       </c>
       <c r="F51" t="n">
-        <v>65878</v>
+        <v>65731</v>
       </c>
     </row>
     <row r="52">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.016</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.078</t>
+          <t>0.062</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.547</t>
+          <t>0.484</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>10.023</t>
+          <t>10.014</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2021,7 +2021,7 @@
         <v>1800</v>
       </c>
       <c r="F57" t="n">
-        <v>45034</v>
+        <v>44948</v>
       </c>
     </row>
     <row r="58">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>10.011</t>
+          <t>10.013</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2065,7 +2065,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0.009</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.328</t>
+          <t>0.266</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.016</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>3.781</t>
+          <t>3.734</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2.156</t>
+          <t>1.953</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.016</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0.062</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2429,7 +2429,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>10.044</t>
+          <t>10.014</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>8.562</t>
+          <t>8.109</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2485,7 +2485,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2513,7 +2513,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0.012</t>
+          <t>0.004</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0.125</t>
+          <t>0.109</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">

--- a/out/results.xlsx
+++ b/out/results.xlsx
@@ -412,10 +412,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -459,7 +459,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5-4-4</t>
+          <t>3-2-2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -469,7 +469,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.109</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -478,16 +478,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1600</v>
+        <v>72</v>
       </c>
       <c r="F2" t="n">
-        <v>35192</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4-3-3</t>
+          <t>5-3-2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -497,25 +497,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.016</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>432</v>
+        <v>240</v>
       </c>
       <c r="F3" t="n">
-        <v>6219</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7-2-4</t>
+          <t>4-3-3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -534,16 +534,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>672</v>
+        <v>432</v>
       </c>
       <c r="F4" t="n">
-        <v>14916</v>
+        <v>6219</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>9-2-5</t>
+          <t>7-4-2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -553,25 +553,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.031</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1350</v>
+        <v>560</v>
       </c>
       <c r="F5" t="n">
-        <v>54215</v>
+        <v>7412</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5-4-5</t>
+          <t>9-5-2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -581,25 +581,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.531</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2500</v>
+        <v>1080</v>
       </c>
       <c r="F6" t="n">
-        <v>74054</v>
+        <v>18845</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1-3-5</t>
+          <t>5-4-4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.078</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -618,16 +618,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>300</v>
+        <v>1600</v>
       </c>
       <c r="F7" t="n">
-        <v>4875</v>
+        <v>35192</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2-3-5</t>
+          <t>11-6-2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -637,25 +637,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.041</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>600</v>
+        <v>1848</v>
       </c>
       <c r="F8" t="n">
-        <v>12495</v>
+        <v>36525</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3-3-5</t>
+          <t>7-6-3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -665,25 +665,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.226</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>900</v>
+        <v>2646</v>
       </c>
       <c r="F9" t="n">
-        <v>22740</v>
+        <v>77859</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4-3-5</t>
+          <t>13-7-2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -693,25 +693,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.016</t>
+          <t>0.004</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1200</v>
+        <v>2912</v>
       </c>
       <c r="F10" t="n">
-        <v>35610</v>
+        <v>75971</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5-3-5</t>
+          <t>6-5-5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.031</t>
+          <t>1.969</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -730,16 +730,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1500</v>
+        <v>4500</v>
       </c>
       <c r="F11" t="n">
-        <v>51105</v>
+        <v>182415</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6-3-5</t>
+          <t>7-7-3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -749,25 +749,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.172</t>
+          <t>0.449</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1800</v>
+        <v>3528</v>
       </c>
       <c r="F12" t="n">
-        <v>42248</v>
+        <v>113375</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6-4-8</t>
+          <t>5-8-3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -777,25 +777,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5.797</t>
+          <t>0.347</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>7680</v>
+        <v>3240</v>
       </c>
       <c r="F13" t="n">
-        <v>593261</v>
+        <v>106191</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7-4-2</t>
+          <t>3-6-6</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -805,19 +805,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>1.188</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>560</v>
+        <v>4536</v>
       </c>
       <c r="F14" t="n">
-        <v>7412</v>
+        <v>225375</v>
       </c>
     </row>
     <row r="15">
@@ -833,7 +833,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.017</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -851,7 +851,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5-3-6</t>
+          <t>6-7-4</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -861,119 +861,119 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.078</t>
+          <t>10.063</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2160</v>
+        <v>5376</v>
       </c>
       <c r="F16" t="n">
-        <v>98109</v>
+        <v>249845</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5-4-4</t>
+          <t>3-8-5</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>binary</t>
+          <t>binomial</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.141</t>
+          <t>10.031</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1600</v>
+        <v>5400</v>
       </c>
       <c r="F17" t="n">
-        <v>26388</v>
+        <v>283150</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4-3-3</t>
+          <t>5-7-5</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>binary</t>
+          <t>binomial</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.016</t>
+          <t>10.000</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>432</v>
+        <v>7000</v>
       </c>
       <c r="F18" t="n">
-        <v>3705</v>
+        <v>415026</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>7-2-4</t>
+          <t>17-9-2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>binary</t>
+          <t>binomial</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.047</t>
+          <t>0.032</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>672</v>
+        <v>6120</v>
       </c>
       <c r="F19" t="n">
-        <v>6753</v>
+        <v>213417</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>9-2-5</t>
+          <t>4-7-6</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>binary</t>
+          <t>binomial</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10.013</t>
+          <t>10.060</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -982,222 +982,222 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1350</v>
+        <v>8064</v>
       </c>
       <c r="F20" t="n">
-        <v>28019</v>
+        <v>545664</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5-4-5</t>
+          <t>3-9-5</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>binary</t>
+          <t>binomial</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4.609</t>
+          <t>10.018</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2500</v>
+        <v>6750</v>
       </c>
       <c r="F21" t="n">
-        <v>59629</v>
+        <v>401931</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1-3-5</t>
+          <t>10-9-3</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>binary</t>
+          <t>binomial</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>10.070</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>300</v>
+        <v>8100</v>
       </c>
       <c r="F22" t="n">
-        <v>2175</v>
+        <v>380706</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2-3-5</t>
+          <t>6-9-4</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>binary</t>
+          <t>binomial</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>10.037</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>600</v>
+        <v>8640</v>
       </c>
       <c r="F23" t="n">
-        <v>6243</v>
+        <v>494291</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3-3-5</t>
+          <t>8-10-3</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>binary</t>
+          <t>binomial</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>1.152</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>900</v>
+        <v>7920</v>
       </c>
       <c r="F24" t="n">
-        <v>14640</v>
+        <v>370165</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4-3-5</t>
+          <t>19-10-2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>binary</t>
+          <t>binomial</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.016</t>
+          <t>4.688</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1200</v>
+        <v>8360</v>
       </c>
       <c r="F25" t="n">
-        <v>23065</v>
+        <v>301897</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5-3-5</t>
+          <t>3-9-6</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>binary</t>
+          <t>binomial</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.047</t>
+          <t>10.118</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1500</v>
+        <v>9720</v>
       </c>
       <c r="F26" t="n">
-        <v>32620</v>
+        <v>741964</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6-3-5</t>
+          <t>5-10-4</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>binary</t>
+          <t>binomial</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3.922</t>
+          <t>10.132</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1800</v>
+        <v>8800</v>
       </c>
       <c r="F27" t="n">
-        <v>47191</v>
+        <v>510243</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6-4-8</t>
+          <t>4-8-7</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>binary</t>
+          <t>binomial</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>10.013</t>
+          <t>10.046</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1206,26 +1206,26 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>7680</v>
+        <v>14112</v>
       </c>
       <c r="F28" t="n">
-        <v>547924</v>
+        <v>1329128</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>7-4-2</t>
+          <t>5-10-5</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>binary</t>
+          <t>binomial</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>10.527</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1234,26 +1234,26 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>560</v>
+        <v>13750</v>
       </c>
       <c r="F29" t="n">
-        <v>5620</v>
+        <v>1101907</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>15-8-2</t>
+          <t>4-9-7</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>binary</t>
+          <t>binomial</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.023</t>
+          <t>10.003</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1262,16 +1262,16 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4320</v>
+        <v>17640</v>
       </c>
       <c r="F30" t="n">
-        <v>100904</v>
+        <v>1840170</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5-3-6</t>
+          <t>3-2-2</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.359</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1290,38 +1290,38 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2160</v>
+        <v>72</v>
       </c>
       <c r="F31" t="n">
-        <v>67188</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5-4-4</t>
+          <t>5-3-2</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>commander</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.125</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1653</v>
+        <v>240</v>
       </c>
       <c r="F32" t="n">
-        <v>38602</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="33">
@@ -1332,12 +1332,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>commander</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.016</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1346,54 +1346,54 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>942</v>
+        <v>432</v>
       </c>
       <c r="F33" t="n">
-        <v>6231</v>
+        <v>3705</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>7-2-4</t>
+          <t>7-4-2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>commander</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>873</v>
+        <v>560</v>
       </c>
       <c r="F34" t="n">
-        <v>6473</v>
+        <v>5620</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>9-2-5</t>
+          <t>9-5-2</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>commander</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>10.063</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1402,222 +1402,222 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1350</v>
+        <v>1080</v>
       </c>
       <c r="F35" t="n">
-        <v>29733</v>
+        <v>14345</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5-4-5</t>
+          <t>5-4-4</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>commander</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>10.013</t>
+          <t>0.094</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="F36" t="n">
-        <v>74089</v>
+        <v>26388</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1-3-5</t>
+          <t>11-6-2</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>commander</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1514</v>
+        <v>1848</v>
       </c>
       <c r="F37" t="n">
-        <v>4915</v>
+        <v>30678</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2-3-5</t>
+          <t>7-6-3</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>commander</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.098</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1524</v>
+        <v>2646</v>
       </c>
       <c r="F38" t="n">
-        <v>12535</v>
+        <v>55772</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3-3-5</t>
+          <t>13-7-2</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>commander</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.212</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1534</v>
+        <v>2912</v>
       </c>
       <c r="F39" t="n">
-        <v>22780</v>
+        <v>54558</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>4-3-5</t>
+          <t>6-5-5</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>commander</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.047</t>
+          <t>10.026</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1544</v>
+        <v>4500</v>
       </c>
       <c r="F40" t="n">
-        <v>31041</v>
+        <v>141839</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5-3-5</t>
+          <t>7-7-3</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>commander</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.062</t>
+          <t>0.114</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1554</v>
+        <v>3528</v>
       </c>
       <c r="F41" t="n">
-        <v>44369</v>
+        <v>80175</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6-3-5</t>
+          <t>5-8-3</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>commander</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2.844</t>
+          <t>0.582</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1800</v>
+        <v>3240</v>
       </c>
       <c r="F42" t="n">
-        <v>56047</v>
+        <v>63088</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6-4-8</t>
+          <t>3-6-6</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>commander</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>10.014</t>
+          <t>10.012</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1626,26 +1626,26 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>7680</v>
+        <v>4536</v>
       </c>
       <c r="F43" t="n">
-        <v>675003</v>
+        <v>129582</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>7-4-2</t>
+          <t>15-8-2</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>commander</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.019</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1654,26 +1654,26 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>871</v>
+        <v>4320</v>
       </c>
       <c r="F44" t="n">
-        <v>7416</v>
+        <v>100904</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>15-8-2</t>
+          <t>6-7-4</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>commander</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.022</t>
+          <t>10.011</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1682,110 +1682,110 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4320</v>
+        <v>5376</v>
       </c>
       <c r="F45" t="n">
-        <v>131628</v>
+        <v>169281</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5-3-6</t>
+          <t>3-8-5</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>commander</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.156</t>
+          <t>10.010</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2160</v>
+        <v>5400</v>
       </c>
       <c r="F46" t="n">
-        <v>87876</v>
+        <v>160410</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5-4-4</t>
+          <t>5-7-5</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>sequential</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.547</t>
+          <t>10.021</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1653</v>
+        <v>7000</v>
       </c>
       <c r="F47" t="n">
-        <v>23773</v>
+        <v>268848</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>4-3-3</t>
+          <t>17-9-2</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>sequential</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.058</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>942</v>
+        <v>6120</v>
       </c>
       <c r="F48" t="n">
-        <v>4569</v>
+        <v>163845</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>7-2-4</t>
+          <t>4-7-6</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>sequential</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>10.006</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1794,26 +1794,26 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>873</v>
+        <v>8064</v>
       </c>
       <c r="F49" t="n">
-        <v>13772</v>
+        <v>349147</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>9-2-5</t>
+          <t>3-9-5</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>sequential</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>10.051</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1822,26 +1822,26 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1350</v>
+        <v>6750</v>
       </c>
       <c r="F50" t="n">
-        <v>50255</v>
+        <v>213713</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5-4-5</t>
+          <t>10-9-3</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>sequential</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>10.013</t>
+          <t>0.609</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1850,166 +1850,166 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2500</v>
+        <v>8100</v>
       </c>
       <c r="F51" t="n">
-        <v>65731</v>
+        <v>267540</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1-3-5</t>
+          <t>6-9-4</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>sequential</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>10.010</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1514</v>
+        <v>8640</v>
       </c>
       <c r="F52" t="n">
-        <v>2985</v>
+        <v>314035</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2-3-5</t>
+          <t>8-10-3</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>sequential</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0.016</t>
+          <t>0.859</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1524</v>
+        <v>7920</v>
       </c>
       <c r="F53" t="n">
-        <v>7832</v>
+        <v>242922</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3-3-5</t>
+          <t>19-10-2</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>sequential</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.024</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1534</v>
+        <v>8360</v>
       </c>
       <c r="F54" t="n">
-        <v>15145</v>
+        <v>252490</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>4-3-5</t>
+          <t>3-9-6</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>sequential</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0.062</t>
+          <t>10.019</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1544</v>
+        <v>9720</v>
       </c>
       <c r="F55" t="n">
-        <v>24667</v>
+        <v>405150</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5-3-5</t>
+          <t>5-10-4</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>sequential</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0.484</t>
+          <t>10.050</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1554</v>
+        <v>8800</v>
       </c>
       <c r="F56" t="n">
-        <v>33440</v>
+        <v>307105</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>6-3-5</t>
+          <t>4-8-7</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>sequential</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>10.014</t>
+          <t>10.020</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2018,26 +2018,26 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1800</v>
+        <v>14112</v>
       </c>
       <c r="F57" t="n">
-        <v>44948</v>
+        <v>834759</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6-4-8</t>
+          <t>5-10-5</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>sequential</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>10.013</t>
+          <t>10.004</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2046,26 +2046,26 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>7680</v>
+        <v>13750</v>
       </c>
       <c r="F58" t="n">
-        <v>570349</v>
+        <v>657083</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>7-4-2</t>
+          <t>4-9-7</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>sequential</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>10.032</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2074,21 +2074,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>871</v>
+        <v>17640</v>
       </c>
       <c r="F59" t="n">
-        <v>6964</v>
+        <v>1117434</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>15-8-2</t>
+          <t>3-2-2</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>sequential</t>
+          <t>commander</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2098,58 +2098,58 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>4320</v>
+        <v>431</v>
       </c>
       <c r="F60" t="n">
-        <v>112242</v>
+        <v>390</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>5-3-6</t>
+          <t>5-3-2</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>sequential</t>
+          <t>commander</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0.266</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2160</v>
+        <v>651</v>
       </c>
       <c r="F61" t="n">
-        <v>70257</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>5-4-4</t>
+          <t>4-3-3</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>commander</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0.125</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2158,82 +2158,82 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1600</v>
+        <v>942</v>
       </c>
       <c r="F62" t="n">
-        <v>30096</v>
+        <v>6231</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>4-3-3</t>
+          <t>7-4-2</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>commander</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>432</v>
+        <v>871</v>
       </c>
       <c r="F63" t="n">
-        <v>3721</v>
+        <v>7416</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>7-2-4</t>
+          <t>9-5-2</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>commander</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0.016</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>672</v>
+        <v>1091</v>
       </c>
       <c r="F64" t="n">
-        <v>13124</v>
+        <v>18849</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>9-2-5</t>
+          <t>5-4-4</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>commander</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>3.734</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2242,194 +2242,194 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1350</v>
+        <v>1653</v>
       </c>
       <c r="F65" t="n">
-        <v>16509</v>
+        <v>38602</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>5-4-5</t>
+          <t>11-6-2</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>commander</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1.953</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2500</v>
+        <v>1848</v>
       </c>
       <c r="F66" t="n">
-        <v>61595</v>
+        <v>40186</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1-3-5</t>
+          <t>7-6-3</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>commander</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.070</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>300</v>
+        <v>2646</v>
       </c>
       <c r="F67" t="n">
-        <v>3255</v>
+        <v>76292</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2-3-5</t>
+          <t>13-7-2</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>commander</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.187</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>600</v>
+        <v>2912</v>
       </c>
       <c r="F68" t="n">
-        <v>9255</v>
+        <v>68970</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>3-3-5</t>
+          <t>6-5-5</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>commander</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0.016</t>
+          <t>10.242</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>900</v>
+        <v>4500</v>
       </c>
       <c r="F69" t="n">
-        <v>17880</v>
+        <v>203004</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>4-3-5</t>
+          <t>7-7-3</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>commander</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0.031</t>
+          <t>10.016</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1200</v>
+        <v>3528</v>
       </c>
       <c r="F70" t="n">
-        <v>20070</v>
+        <v>111723</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>5-3-5</t>
+          <t>5-8-3</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>commander</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.322</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1500</v>
+        <v>3240</v>
       </c>
       <c r="F71" t="n">
-        <v>32079</v>
+        <v>98490</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6-3-5</t>
+          <t>3-6-6</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>commander</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>10.014</t>
+          <t>10.019</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2438,54 +2438,54 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1800</v>
+        <v>4536</v>
       </c>
       <c r="F72" t="n">
-        <v>39969</v>
+        <v>205384</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6-4-8</t>
+          <t>15-8-2</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>commander</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>8.109</t>
+          <t>0.021</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>7680</v>
+        <v>4320</v>
       </c>
       <c r="F73" t="n">
-        <v>491380</v>
+        <v>131628</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>7-4-2</t>
+          <t>6-7-4</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>commander</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>10.051</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2494,26 +2494,26 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>560</v>
+        <v>5376</v>
       </c>
       <c r="F74" t="n">
-        <v>5620</v>
+        <v>252010</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>15-8-2</t>
+          <t>3-8-5</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>commander</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0.004</t>
+          <t>10.036</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2522,38 +2522,2723 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>4320</v>
+        <v>5400</v>
       </c>
       <c r="F75" t="n">
-        <v>100904</v>
+        <v>292508</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>5-3-6</t>
+          <t>5-7-5</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
+          <t>commander</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>10.075</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>7000</v>
+      </c>
+      <c r="F76" t="n">
+        <v>417240</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>17-9-2</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>commander</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0.061</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>6120</v>
+      </c>
+      <c r="F77" t="n">
+        <v>213421</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>4-7-6</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>commander</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>10.032</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>8064</v>
+      </c>
+      <c r="F78" t="n">
+        <v>564482</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>3-9-5</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>commander</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>10.007</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>6750</v>
+      </c>
+      <c r="F79" t="n">
+        <v>394578</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>10-9-3</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>commander</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0.516</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>8100</v>
+      </c>
+      <c r="F80" t="n">
+        <v>376518</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>6-9-4</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>commander</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>10.057</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>8640</v>
+      </c>
+      <c r="F81" t="n">
+        <v>499953</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>8-10-3</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>commander</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0.605</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>7920</v>
+      </c>
+      <c r="F82" t="n">
+        <v>360573</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>19-10-2</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>commander</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0.030</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>8360</v>
+      </c>
+      <c r="F83" t="n">
+        <v>328494</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>3-9-6</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>commander</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>10.023</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>9720</v>
+      </c>
+      <c r="F84" t="n">
+        <v>754239</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>5-10-4</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>commander</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>10.010</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>8800</v>
+      </c>
+      <c r="F85" t="n">
+        <v>506864</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>4-8-7</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>commander</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>10.023</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>14112</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1397498</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>5-10-5</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>commander</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>10.064</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>13750</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1119295</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>4-9-7</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>commander</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>10.117</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>17640</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1925795</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>3-2-2</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>sequential</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>431</v>
+      </c>
+      <c r="F89" t="n">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>5-3-2</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>sequential</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>651</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>4-3-3</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>sequential</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>942</v>
+      </c>
+      <c r="F91" t="n">
+        <v>4569</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>7-4-2</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>sequential</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>871</v>
+      </c>
+      <c r="F92" t="n">
+        <v>6964</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>9-5-2</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>sequential</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>1091</v>
+      </c>
+      <c r="F93" t="n">
+        <v>17045</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>5-4-4</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>sequential</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>1.594</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>1653</v>
+      </c>
+      <c r="F94" t="n">
+        <v>23773</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>11-6-2</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>sequential</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>1848</v>
+      </c>
+      <c r="F95" t="n">
+        <v>35393</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>7-6-3</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>sequential</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>0.046</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>2646</v>
+      </c>
+      <c r="F96" t="n">
+        <v>62317</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>13-7-2</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>sequential</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>2912</v>
+      </c>
+      <c r="F97" t="n">
+        <v>65779</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>6-5-5</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>sequential</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>10.023</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>4500</v>
+      </c>
+      <c r="F98" t="n">
+        <v>156309</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>7-7-3</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>sequential</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>0.340</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>3528</v>
+      </c>
+      <c r="F99" t="n">
+        <v>87880</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>5-8-3</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>sequential</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>0.659</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>3240</v>
+      </c>
+      <c r="F100" t="n">
+        <v>70295</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>3-6-6</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>sequential</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>10.173</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>4536</v>
+      </c>
+      <c r="F101" t="n">
+        <v>135826</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>15-8-2</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>sequential</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>4320</v>
+      </c>
+      <c r="F102" t="n">
+        <v>112242</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>6-7-4</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>sequential</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>10.024</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>5376</v>
+      </c>
+      <c r="F103" t="n">
+        <v>179262</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>3-8-5</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>sequential</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>10.093</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>5400</v>
+      </c>
+      <c r="F104" t="n">
+        <v>174358</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>5-7-5</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>sequential</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>10.044</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>7000</v>
+      </c>
+      <c r="F105" t="n">
+        <v>289236</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>17-9-2</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>sequential</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>0.009</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>6120</v>
+      </c>
+      <c r="F106" t="n">
+        <v>180369</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>4-7-6</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>sequential</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>10.018</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>8064</v>
+      </c>
+      <c r="F107" t="n">
+        <v>371816</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>3-9-5</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>sequential</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>10.024</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>6750</v>
+      </c>
+      <c r="F108" t="n">
+        <v>236797</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>10-9-3</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>sequential</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>0.625</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>8100</v>
+      </c>
+      <c r="F109" t="n">
+        <v>287485</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>6-9-4</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>sequential</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>10.019</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>8640</v>
+      </c>
+      <c r="F110" t="n">
+        <v>338277</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>8-10-3</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>sequential</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>1.284</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>7920</v>
+      </c>
+      <c r="F111" t="n">
+        <v>260287</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>19-10-2</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>sequential</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>0.103</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>8360</v>
+      </c>
+      <c r="F112" t="n">
+        <v>275177</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>3-9-6</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>sequential</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>10.025</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>9720</v>
+      </c>
+      <c r="F113" t="n">
+        <v>432939</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>5-10-4</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>sequential</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>10.026</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>8800</v>
+      </c>
+      <c r="F114" t="n">
+        <v>332381</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>4-8-7</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>sequential</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>10.024</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>14112</v>
+      </c>
+      <c r="F115" t="n">
+        <v>877204</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>5-10-5</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>sequential</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>10.017</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>13750</v>
+      </c>
+      <c r="F116" t="n">
+        <v>693219</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>4-9-7</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>sequential</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>10.154</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>17640</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1170638</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>3-2-2</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
           <t>product</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>0.109</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
         <is>
           <t>sat</t>
         </is>
       </c>
-      <c r="E76" t="n">
-        <v>2160</v>
-      </c>
-      <c r="F76" t="n">
-        <v>60351</v>
+      <c r="E118" t="n">
+        <v>72</v>
+      </c>
+      <c r="F118" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>5-3-2</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>240</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>4-3-3</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>0.016</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>432</v>
+      </c>
+      <c r="F120" t="n">
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>7-4-2</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>560</v>
+      </c>
+      <c r="F121" t="n">
+        <v>5620</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>9-5-2</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>1080</v>
+      </c>
+      <c r="F122" t="n">
+        <v>14345</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>5-4-4</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>0.141</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>1600</v>
+      </c>
+      <c r="F123" t="n">
+        <v>30096</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>11-6-2</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>1848</v>
+      </c>
+      <c r="F124" t="n">
+        <v>30678</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>7-6-3</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>0.146</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>2646</v>
+      </c>
+      <c r="F125" t="n">
+        <v>60817</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>13-7-2</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>0.202</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>2912</v>
+      </c>
+      <c r="F126" t="n">
+        <v>54558</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>6-5-5</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>10.015</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>4500</v>
+      </c>
+      <c r="F127" t="n">
+        <v>163052</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>7-7-3</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>10.086</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>3528</v>
+      </c>
+      <c r="F128" t="n">
+        <v>94117</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>5-8-3</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>0.599</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>3240</v>
+      </c>
+      <c r="F129" t="n">
+        <v>78075</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>3-6-6</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>10.047</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>4536</v>
+      </c>
+      <c r="F130" t="n">
+        <v>146842</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>15-8-2</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>0.016</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>4320</v>
+      </c>
+      <c r="F131" t="n">
+        <v>100904</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>6-7-4</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>10.015</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>5376</v>
+      </c>
+      <c r="F132" t="n">
+        <v>192468</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>3-8-5</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>10.031</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>5400</v>
+      </c>
+      <c r="F133" t="n">
+        <v>208712</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>5-7-5</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>10.032</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>7000</v>
+      </c>
+      <c r="F134" t="n">
+        <v>325227</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>17-9-2</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>0.062</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>6120</v>
+      </c>
+      <c r="F135" t="n">
+        <v>163845</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>4-7-6</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>10.001</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>8064</v>
+      </c>
+      <c r="F136" t="n">
+        <v>432553</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>3-9-5</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>10.019</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>6750</v>
+      </c>
+      <c r="F137" t="n">
+        <v>284123</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>10-9-3</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>10.034</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>8100</v>
+      </c>
+      <c r="F138" t="n">
+        <v>309601</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>6-9-4</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>10.006</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>8640</v>
+      </c>
+      <c r="F139" t="n">
+        <v>380047</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>8-10-3</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>0.534</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>7920</v>
+      </c>
+      <c r="F140" t="n">
+        <v>291699</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>19-10-2</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>0.029</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>8360</v>
+      </c>
+      <c r="F141" t="n">
+        <v>252490</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>3-9-6</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>10.092</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>9720</v>
+      </c>
+      <c r="F142" t="n">
+        <v>533739</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>5-10-4</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>10.125</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>8800</v>
+      </c>
+      <c r="F143" t="n">
+        <v>366556</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>4-8-7</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>10.022</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>14112</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1041870</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>5-10-5</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>10.069</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>13750</v>
+      </c>
+      <c r="F145" t="n">
+        <v>831801</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>4-9-7</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>10.057</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>17640</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1430523</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>3-2-2</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>PyCSP</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>0.016</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>5-3-2</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>PyCSP</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>0.082</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>4-3-3</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>PyCSP</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>0.052</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>7-4-2</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>PyCSP</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>0.132</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>9-5-2</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>PyCSP</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>0.324</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>5-4-4</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>PyCSP</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>0.224</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>11-6-2</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>PyCSP</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>0.653</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>7-6-3</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>PyCSP</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>0.597</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>13-7-2</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>PyCSP</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>1.325</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>6-5-5</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>PyCSP</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>0.858</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>7-7-3</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>PyCSP</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>0.817</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>5-8-3</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>PyCSP</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>0.503</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>3-6-6</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>PyCSP</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>0.413</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>15-8-2</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>PyCSP</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>2.599</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>6-7-4</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>PyCSP</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>1.061</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>3-8-5</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>PyCSP</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>0.427</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>5-7-5</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>PyCSP</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>1.563</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>17-9-2</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>PyCSP</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>3.645</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>4-7-6</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>PyCSP</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>1.446</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>3-9-5</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>PyCSP</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>0.676</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>10-9-3</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>PyCSP</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>3.483</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>6-9-4</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>PyCSP</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>1.763</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>8-10-3</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>PyCSP</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>2.556</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>19-10-2</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>PyCSP</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>5.644</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>3-9-6</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>PyCSP</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>0.735</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>5-10-4</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>PyCSP</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>1.303</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>4-8-7</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>PyCSP</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>1.873</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>5-10-5</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>PyCSP</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>2.028</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>4-9-7</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>PyCSP</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>1.935</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>unsat</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/out/results.xlsx
+++ b/out/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="211">
   <si>
     <t>ID</t>
   </si>
@@ -562,97 +562,91 @@
     <t>PyCSP</t>
   </si>
   <si>
-    <t>1.533</t>
-  </si>
-  <si>
-    <t>1.718</t>
-  </si>
-  <si>
-    <t>1.816</t>
-  </si>
-  <si>
-    <t>2.134</t>
-  </si>
-  <si>
-    <t>2.983</t>
-  </si>
-  <si>
-    <t>2.686</t>
-  </si>
-  <si>
-    <t>4.149</t>
-  </si>
-  <si>
-    <t>3.849</t>
-  </si>
-  <si>
-    <t>5.715</t>
-  </si>
-  <si>
-    <t>5.763</t>
-  </si>
-  <si>
-    <t>4.321</t>
-  </si>
-  <si>
-    <t>3.643</t>
-  </si>
-  <si>
-    <t>3.083</t>
-  </si>
-  <si>
-    <t>8.680</t>
-  </si>
-  <si>
-    <t>5.296</t>
-  </si>
-  <si>
-    <t>3.566</t>
-  </si>
-  <si>
-    <t>5.531</t>
-  </si>
-  <si>
-    <t>12.641</t>
-  </si>
-  <si>
-    <t>6.207</t>
-  </si>
-  <si>
-    <t>3.892</t>
-  </si>
-  <si>
-    <t>9.968</t>
-  </si>
-  <si>
-    <t>7.263</t>
-  </si>
-  <si>
-    <t>9.194</t>
-  </si>
-  <si>
-    <t>19.674</t>
-  </si>
-  <si>
-    <t>5.811</t>
-  </si>
-  <si>
-    <t>6.359</t>
-  </si>
-  <si>
-    <t>9.426</t>
-  </si>
-  <si>
-    <t>9.072</t>
-  </si>
-  <si>
-    <t>12.211</t>
-  </si>
-  <si>
-    <t>1.508</t>
-  </si>
-  <si>
-    <t>2.333</t>
+    <t>1.884</t>
+  </si>
+  <si>
+    <t>1.658</t>
+  </si>
+  <si>
+    <t>2.500</t>
+  </si>
+  <si>
+    <t>2.160</t>
+  </si>
+  <si>
+    <t>3.286</t>
+  </si>
+  <si>
+    <t>2.821</t>
+  </si>
+  <si>
+    <t>3.678</t>
+  </si>
+  <si>
+    <t>3.620</t>
+  </si>
+  <si>
+    <t>6.127</t>
+  </si>
+  <si>
+    <t>4.655</t>
+  </si>
+  <si>
+    <t>3.621</t>
+  </si>
+  <si>
+    <t>3.004</t>
+  </si>
+  <si>
+    <t>10.000</t>
+  </si>
+  <si>
+    <t>timeout</t>
+  </si>
+  <si>
+    <t>4.690</t>
+  </si>
+  <si>
+    <t>3.311</t>
+  </si>
+  <si>
+    <t>4.527</t>
+  </si>
+  <si>
+    <t>5.766</t>
+  </si>
+  <si>
+    <t>3.362</t>
+  </si>
+  <si>
+    <t>7.156</t>
+  </si>
+  <si>
+    <t>6.110</t>
+  </si>
+  <si>
+    <t>1.869</t>
+  </si>
+  <si>
+    <t>2.376</t>
+  </si>
+  <si>
+    <t>3.178</t>
+  </si>
+  <si>
+    <t>3.963</t>
+  </si>
+  <si>
+    <t>2.611</t>
+  </si>
+  <si>
+    <t>3.728</t>
+  </si>
+  <si>
+    <t>3.821</t>
+  </si>
+  <si>
+    <t>3.056</t>
   </si>
 </sst>
 </file>
@@ -688,8 +682,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -989,10 +984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G282"/>
+  <dimension ref="A1:N301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7015,8 +7010,8 @@
       <c r="C262" t="s">
         <v>181</v>
       </c>
-      <c r="D262" t="s">
-        <v>192</v>
+      <c r="D262" s="1">
+        <v>4090</v>
       </c>
       <c r="E262" t="s">
         <v>13</v>
@@ -7039,7 +7034,7 @@
         <v>181</v>
       </c>
       <c r="D263" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E263" t="s">
         <v>13</v>
@@ -7062,7 +7057,7 @@
         <v>181</v>
       </c>
       <c r="D264" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E264" t="s">
         <v>10</v>
@@ -7085,10 +7080,10 @@
         <v>181</v>
       </c>
       <c r="D265" t="s">
+        <v>194</v>
+      </c>
+      <c r="E265" t="s">
         <v>195</v>
-      </c>
-      <c r="E265" t="s">
-        <v>13</v>
       </c>
       <c r="F265">
         <v>240</v>
@@ -7177,10 +7172,10 @@
         <v>181</v>
       </c>
       <c r="D269" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E269" t="s">
-        <v>13</v>
+        <v>195</v>
       </c>
       <c r="F269">
         <v>306</v>
@@ -7200,7 +7195,7 @@
         <v>181</v>
       </c>
       <c r="D270" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E270" t="s">
         <v>13</v>
@@ -7223,7 +7218,7 @@
         <v>181</v>
       </c>
       <c r="D271" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E271" t="s">
         <v>13</v>
@@ -7246,10 +7241,10 @@
         <v>181</v>
       </c>
       <c r="D272" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E272" t="s">
-        <v>13</v>
+        <v>195</v>
       </c>
       <c r="F272">
         <v>270</v>
@@ -7258,7 +7253,7 @@
         <v>15806</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>22</v>
       </c>
@@ -7269,10 +7264,10 @@
         <v>181</v>
       </c>
       <c r="D273" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E273" t="s">
-        <v>13</v>
+        <v>195</v>
       </c>
       <c r="F273">
         <v>216</v>
@@ -7281,7 +7276,7 @@
         <v>9457</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>23</v>
       </c>
@@ -7292,10 +7287,10 @@
         <v>181</v>
       </c>
       <c r="D274" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E274" t="s">
-        <v>13</v>
+        <v>195</v>
       </c>
       <c r="F274">
         <v>240</v>
@@ -7304,7 +7299,7 @@
         <v>12189</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>24</v>
       </c>
@@ -7315,10 +7310,10 @@
         <v>181</v>
       </c>
       <c r="D275" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="E275" t="s">
-        <v>13</v>
+        <v>195</v>
       </c>
       <c r="F275">
         <v>380</v>
@@ -7327,7 +7322,7 @@
         <v>32510</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>25</v>
       </c>
@@ -7338,7 +7333,7 @@
         <v>181</v>
       </c>
       <c r="D276" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E276" t="s">
         <v>13</v>
@@ -7350,7 +7345,7 @@
         <v>4297</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>26</v>
       </c>
@@ -7361,7 +7356,7 @@
         <v>181</v>
       </c>
       <c r="D277" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E277" t="s">
         <v>13</v>
@@ -7373,7 +7368,7 @@
         <v>7806</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>27</v>
       </c>
@@ -7384,10 +7379,10 @@
         <v>181</v>
       </c>
       <c r="D278" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="E278" t="s">
-        <v>13</v>
+        <v>195</v>
       </c>
       <c r="F278">
         <v>224</v>
@@ -7396,7 +7391,7 @@
         <v>9245</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>28</v>
       </c>
@@ -7407,10 +7402,10 @@
         <v>181</v>
       </c>
       <c r="D279" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="E279" t="s">
-        <v>13</v>
+        <v>195</v>
       </c>
       <c r="F279">
         <v>250</v>
@@ -7419,7 +7414,7 @@
         <v>12256</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>29</v>
       </c>
@@ -7430,10 +7425,10 @@
         <v>181</v>
       </c>
       <c r="D280" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="E280" t="s">
-        <v>13</v>
+        <v>195</v>
       </c>
       <c r="F280">
         <v>252</v>
@@ -7442,7 +7437,7 @@
         <v>11723</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>30</v>
       </c>
@@ -7453,7 +7448,7 @@
         <v>181</v>
       </c>
       <c r="D281" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E281" t="s">
         <v>13</v>
@@ -7465,7 +7460,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>31</v>
       </c>
@@ -7476,7 +7471,7 @@
         <v>181</v>
       </c>
       <c r="D282" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E282" t="s">
         <v>13</v>
@@ -7486,6 +7481,444 @@
       </c>
       <c r="G282">
         <v>366</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>32</v>
+      </c>
+      <c r="B283" t="s">
+        <v>66</v>
+      </c>
+      <c r="C283" t="s">
+        <v>181</v>
+      </c>
+      <c r="D283" t="s">
+        <v>194</v>
+      </c>
+      <c r="E283" t="s">
+        <v>195</v>
+      </c>
+      <c r="F283">
+        <v>60</v>
+      </c>
+      <c r="G283">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>33</v>
+      </c>
+      <c r="B284" t="s">
+        <v>68</v>
+      </c>
+      <c r="C284" t="s">
+        <v>181</v>
+      </c>
+      <c r="D284" t="s">
+        <v>205</v>
+      </c>
+      <c r="E284" t="s">
+        <v>10</v>
+      </c>
+      <c r="F284">
+        <v>75</v>
+      </c>
+      <c r="G284">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>34</v>
+      </c>
+      <c r="B285" t="s">
+        <v>69</v>
+      </c>
+      <c r="C285" t="s">
+        <v>181</v>
+      </c>
+      <c r="D285" t="s">
+        <v>206</v>
+      </c>
+      <c r="E285" t="s">
+        <v>10</v>
+      </c>
+      <c r="F285">
+        <v>90</v>
+      </c>
+      <c r="G285">
+        <v>1536</v>
+      </c>
+      <c r="N285" s="1"/>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>35</v>
+      </c>
+      <c r="B286" t="s">
+        <v>71</v>
+      </c>
+      <c r="C286" t="s">
+        <v>181</v>
+      </c>
+      <c r="D286" t="s">
+        <v>207</v>
+      </c>
+      <c r="E286" t="s">
+        <v>13</v>
+      </c>
+      <c r="F286">
+        <v>32</v>
+      </c>
+      <c r="G286">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>36</v>
+      </c>
+      <c r="B287" t="s">
+        <v>72</v>
+      </c>
+      <c r="C287" t="s">
+        <v>181</v>
+      </c>
+      <c r="D287" t="s">
+        <v>208</v>
+      </c>
+      <c r="E287" t="s">
+        <v>13</v>
+      </c>
+      <c r="F287">
+        <v>64</v>
+      </c>
+      <c r="G287">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>37</v>
+      </c>
+      <c r="B288" t="s">
+        <v>73</v>
+      </c>
+      <c r="C288" t="s">
+        <v>181</v>
+      </c>
+      <c r="D288" t="s">
+        <v>209</v>
+      </c>
+      <c r="E288" t="s">
+        <v>13</v>
+      </c>
+      <c r="F288">
+        <v>96</v>
+      </c>
+      <c r="G288">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>38</v>
+      </c>
+      <c r="B289" t="s">
+        <v>75</v>
+      </c>
+      <c r="C289" t="s">
+        <v>181</v>
+      </c>
+      <c r="D289" t="s">
+        <v>194</v>
+      </c>
+      <c r="E289" t="s">
+        <v>195</v>
+      </c>
+      <c r="F289">
+        <v>128</v>
+      </c>
+      <c r="G289">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>39</v>
+      </c>
+      <c r="B290" t="s">
+        <v>77</v>
+      </c>
+      <c r="C290" t="s">
+        <v>181</v>
+      </c>
+      <c r="D290" t="s">
+        <v>194</v>
+      </c>
+      <c r="E290" t="s">
+        <v>195</v>
+      </c>
+      <c r="F290">
+        <v>160</v>
+      </c>
+      <c r="G290">
+        <v>5329</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>40</v>
+      </c>
+      <c r="B291" t="s">
+        <v>79</v>
+      </c>
+      <c r="C291" t="s">
+        <v>181</v>
+      </c>
+      <c r="D291" t="s">
+        <v>194</v>
+      </c>
+      <c r="E291" t="s">
+        <v>195</v>
+      </c>
+      <c r="F291">
+        <v>192</v>
+      </c>
+      <c r="G291">
+        <v>7737</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>41</v>
+      </c>
+      <c r="B292" t="s">
+        <v>81</v>
+      </c>
+      <c r="C292" t="s">
+        <v>181</v>
+      </c>
+      <c r="D292" t="s">
+        <v>210</v>
+      </c>
+      <c r="E292" t="s">
+        <v>10</v>
+      </c>
+      <c r="F292">
+        <v>105</v>
+      </c>
+      <c r="G292">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>42</v>
+      </c>
+      <c r="B293" t="s">
+        <v>83</v>
+      </c>
+      <c r="C293" t="s">
+        <v>181</v>
+      </c>
+      <c r="D293" t="s">
+        <v>194</v>
+      </c>
+      <c r="E293" t="s">
+        <v>195</v>
+      </c>
+      <c r="F293">
+        <v>224</v>
+      </c>
+      <c r="G293">
+        <v>10593</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>43</v>
+      </c>
+      <c r="B294" t="s">
+        <v>85</v>
+      </c>
+      <c r="C294" t="s">
+        <v>181</v>
+      </c>
+      <c r="D294" t="s">
+        <v>194</v>
+      </c>
+      <c r="E294" t="s">
+        <v>195</v>
+      </c>
+      <c r="F294">
+        <v>256</v>
+      </c>
+      <c r="G294">
+        <v>13897</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>44</v>
+      </c>
+      <c r="B295" t="s">
+        <v>86</v>
+      </c>
+      <c r="C295" t="s">
+        <v>181</v>
+      </c>
+      <c r="D295" t="s">
+        <v>194</v>
+      </c>
+      <c r="E295" t="s">
+        <v>195</v>
+      </c>
+      <c r="F295">
+        <v>288</v>
+      </c>
+      <c r="G295">
+        <v>17649</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>45</v>
+      </c>
+      <c r="B296" t="s">
+        <v>88</v>
+      </c>
+      <c r="C296" t="s">
+        <v>181</v>
+      </c>
+      <c r="D296" t="s">
+        <v>194</v>
+      </c>
+      <c r="E296" t="s">
+        <v>195</v>
+      </c>
+      <c r="F296">
+        <v>320</v>
+      </c>
+      <c r="G296">
+        <v>21849</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>46</v>
+      </c>
+      <c r="B297" t="s">
+        <v>90</v>
+      </c>
+      <c r="C297" t="s">
+        <v>181</v>
+      </c>
+      <c r="D297" t="s">
+        <v>194</v>
+      </c>
+      <c r="E297" t="s">
+        <v>195</v>
+      </c>
+      <c r="F297">
+        <v>216</v>
+      </c>
+      <c r="G297">
+        <v>9946</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>47</v>
+      </c>
+      <c r="B298" t="s">
+        <v>91</v>
+      </c>
+      <c r="C298" t="s">
+        <v>181</v>
+      </c>
+      <c r="D298" t="s">
+        <v>194</v>
+      </c>
+      <c r="E298" t="s">
+        <v>195</v>
+      </c>
+      <c r="F298">
+        <v>252</v>
+      </c>
+      <c r="G298">
+        <v>13618</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>48</v>
+      </c>
+      <c r="B299" t="s">
+        <v>93</v>
+      </c>
+      <c r="C299" t="s">
+        <v>181</v>
+      </c>
+      <c r="D299" t="s">
+        <v>194</v>
+      </c>
+      <c r="E299" t="s">
+        <v>195</v>
+      </c>
+      <c r="F299">
+        <v>288</v>
+      </c>
+      <c r="G299">
+        <v>17866</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>49</v>
+      </c>
+      <c r="B300" t="s">
+        <v>94</v>
+      </c>
+      <c r="C300" t="s">
+        <v>181</v>
+      </c>
+      <c r="D300" t="s">
+        <v>194</v>
+      </c>
+      <c r="E300" t="s">
+        <v>195</v>
+      </c>
+      <c r="F300">
+        <v>324</v>
+      </c>
+      <c r="G300">
+        <v>22690</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>50</v>
+      </c>
+      <c r="B301" t="s">
+        <v>96</v>
+      </c>
+      <c r="C301" t="s">
+        <v>181</v>
+      </c>
+      <c r="D301" t="s">
+        <v>194</v>
+      </c>
+      <c r="E301" t="s">
+        <v>195</v>
+      </c>
+      <c r="F301">
+        <v>360</v>
+      </c>
+      <c r="G301">
+        <v>28090</v>
       </c>
     </row>
   </sheetData>

--- a/out/results.xlsx
+++ b/out/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="212">
   <si>
     <t>ID</t>
   </si>
@@ -647,6 +647,9 @@
   </si>
   <si>
     <t>3.056</t>
+  </si>
+  <si>
+    <t>4.187</t>
   </si>
 </sst>
 </file>
@@ -682,9 +685,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -986,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A290" workbookViewId="0">
+      <selection activeCell="F298" sqref="F298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7010,8 +7014,8 @@
       <c r="C262" t="s">
         <v>181</v>
       </c>
-      <c r="D262" s="1">
-        <v>4090</v>
+      <c r="D262" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="E262" t="s">
         <v>13</v>
